--- a/data/class_roll_project.xlsx
+++ b/data/class_roll_project.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coop2711/Google 드라이브/Works/Class/Statistics/R.WD/Class_data/class201502/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="20640" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="20640" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="출석" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -846,14 +854,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -869,7 +877,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -877,13 +885,13 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -892,7 +900,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -900,14 +908,14 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1013,7 +1021,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1037,6 +1045,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1049,26 +1058,34 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="17">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="기본" xfId="0" builtinId="0"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="15" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1408,46 +1425,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE72"/>
+  <dimension ref="A1:AE73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="10" ySplit="2" topLeftCell="L9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="2" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AC73" sqref="AC73"/>
+      <selection pane="bottomRight" activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.1640625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="11.1640625" style="1" customWidth="1"/>
-    <col min="11" max="25" width="8.83203125" style="1"/>
-    <col min="26" max="26" width="8.83203125" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.83203125" style="1"/>
+    <col min="6" max="6" width="4.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="1" customWidth="1"/>
+    <col min="11" max="25" width="8.85546875" style="1"/>
+    <col min="26" max="26" width="8.85546875" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
       <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:31" ht="17.25" customHeight="1">
+    <row r="2" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1529,20 +1547,20 @@
       <c r="AA2" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="AB2" s="13" t="s">
+      <c r="AB2" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="AC2" s="13" t="s">
+      <c r="AC2" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="AD2" s="13" t="s">
+      <c r="AD2" s="9" t="s">
         <v>263</v>
       </c>
       <c r="AE2" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="28">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1632,7 +1650,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="28">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1722,7 +1740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="28">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -1809,7 +1827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="28">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -1846,7 +1864,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="28">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1936,7 +1954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="28">
+    <row r="8" spans="1:31" ht="31" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -2026,7 +2044,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="28">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -2113,7 +2131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="28">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -2203,7 +2221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="28">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -2293,7 +2311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="28">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -2383,7 +2401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="28">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -2470,7 +2488,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="28">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -2557,97 +2575,97 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="28">
-      <c r="A15" s="6">
+    <row r="15" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
         <v>13</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="15">
         <v>20121109</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="15">
         <v>2</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="2" t="s">
+      <c r="H15" s="16"/>
+      <c r="I15" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="L15" s="1">
-        <v>7</v>
-      </c>
-      <c r="M15" s="1">
-        <v>7</v>
-      </c>
-      <c r="N15" s="1">
-        <v>5</v>
-      </c>
-      <c r="O15" s="1">
-        <v>5</v>
-      </c>
-      <c r="P15" s="1">
-        <v>8</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>6</v>
-      </c>
-      <c r="R15" s="1">
-        <v>8</v>
-      </c>
-      <c r="S15" s="1">
-        <v>7</v>
-      </c>
-      <c r="T15" s="1">
+      <c r="L15" s="14">
+        <v>7</v>
+      </c>
+      <c r="M15" s="14">
+        <v>7</v>
+      </c>
+      <c r="N15" s="14">
+        <v>5</v>
+      </c>
+      <c r="O15" s="14">
+        <v>5</v>
+      </c>
+      <c r="P15" s="14">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="14">
+        <v>6</v>
+      </c>
+      <c r="R15" s="14">
+        <v>8</v>
+      </c>
+      <c r="S15" s="14">
+        <v>7</v>
+      </c>
+      <c r="T15" s="14">
         <v>4</v>
       </c>
-      <c r="U15" s="1">
-        <v>6</v>
-      </c>
-      <c r="V15" s="1">
-        <v>6</v>
-      </c>
-      <c r="W15" s="1">
+      <c r="U15" s="14">
+        <v>6</v>
+      </c>
+      <c r="V15" s="14">
+        <v>6</v>
+      </c>
+      <c r="W15" s="14">
         <v>4</v>
       </c>
-      <c r="X15" s="1">
-        <v>5</v>
-      </c>
-      <c r="Y15" s="1">
+      <c r="X15" s="14">
+        <v>5</v>
+      </c>
+      <c r="Y15" s="14">
         <v>4</v>
       </c>
-      <c r="Z15" s="1">
+      <c r="Z15" s="14">
         <v>4</v>
       </c>
-      <c r="AA15" s="1">
-        <v>7</v>
-      </c>
-      <c r="AB15" s="1">
+      <c r="AA15" s="14">
+        <v>7</v>
+      </c>
+      <c r="AB15" s="14">
         <v>7.16</v>
       </c>
-      <c r="AC15" s="1">
+      <c r="AC15" s="14">
         <v>0</v>
       </c>
-      <c r="AD15" s="1">
+      <c r="AD15" s="14">
         <f t="shared" si="0"/>
         <v>7.16</v>
       </c>
-      <c r="AE15" s="1">
+      <c r="AE15" s="14">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="28">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -2737,7 +2755,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="28">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -2827,7 +2845,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="28">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>16</v>
       </c>
@@ -2917,7 +2935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="28">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -3007,7 +3025,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="28">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>18</v>
       </c>
@@ -3097,7 +3115,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="28">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>19</v>
       </c>
@@ -3187,7 +3205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="28">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>20</v>
       </c>
@@ -3274,7 +3292,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="28">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>21</v>
       </c>
@@ -3364,7 +3382,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="28">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>22</v>
       </c>
@@ -3454,7 +3472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="28">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>23</v>
       </c>
@@ -3544,7 +3562,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="28">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>24</v>
       </c>
@@ -3634,7 +3652,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="28">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>25</v>
       </c>
@@ -3727,7 +3745,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="28">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>26</v>
       </c>
@@ -3817,7 +3835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="28">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>27</v>
       </c>
@@ -3907,97 +3925,97 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="28">
-      <c r="A30" s="6">
+    <row r="30" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15">
         <v>28</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="16"/>
+      <c r="C30" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="15">
         <v>20121117</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="15">
         <v>3</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="2" t="s">
+      <c r="H30" s="16"/>
+      <c r="I30" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="J30" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="14">
         <v>4</v>
       </c>
-      <c r="M30" s="1">
-        <v>8</v>
-      </c>
-      <c r="N30" s="1">
-        <v>5</v>
-      </c>
-      <c r="O30" s="1">
-        <v>9</v>
-      </c>
-      <c r="P30" s="1">
-        <v>7</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>7</v>
-      </c>
-      <c r="R30" s="1">
-        <v>9</v>
-      </c>
-      <c r="S30" s="1">
-        <v>5</v>
-      </c>
-      <c r="T30" s="1">
-        <v>8</v>
-      </c>
-      <c r="U30" s="1">
-        <v>9</v>
-      </c>
-      <c r="V30" s="1">
+      <c r="M30" s="14">
+        <v>8</v>
+      </c>
+      <c r="N30" s="14">
+        <v>5</v>
+      </c>
+      <c r="O30" s="14">
+        <v>9</v>
+      </c>
+      <c r="P30" s="14">
+        <v>7</v>
+      </c>
+      <c r="Q30" s="14">
+        <v>7</v>
+      </c>
+      <c r="R30" s="14">
+        <v>9</v>
+      </c>
+      <c r="S30" s="14">
+        <v>5</v>
+      </c>
+      <c r="T30" s="14">
+        <v>8</v>
+      </c>
+      <c r="U30" s="14">
+        <v>9</v>
+      </c>
+      <c r="V30" s="14">
         <v>10</v>
       </c>
-      <c r="W30" s="1">
-        <v>6</v>
-      </c>
-      <c r="X30" s="1">
+      <c r="W30" s="14">
+        <v>6</v>
+      </c>
+      <c r="X30" s="14">
         <v>1</v>
       </c>
-      <c r="Y30" s="1">
-        <v>6</v>
-      </c>
-      <c r="Z30" s="1">
-        <v>7</v>
-      </c>
-      <c r="AA30" s="1">
-        <v>8</v>
-      </c>
-      <c r="AB30" s="1">
+      <c r="Y30" s="14">
+        <v>6</v>
+      </c>
+      <c r="Z30" s="14">
+        <v>7</v>
+      </c>
+      <c r="AA30" s="14">
+        <v>8</v>
+      </c>
+      <c r="AB30" s="14">
         <v>7.16</v>
       </c>
-      <c r="AC30" s="1">
+      <c r="AC30" s="14">
         <v>0</v>
       </c>
-      <c r="AD30" s="1">
+      <c r="AD30" s="14">
         <f t="shared" si="0"/>
         <v>7.16</v>
       </c>
-      <c r="AE30" s="1">
+      <c r="AE30" s="14">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="28">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>29</v>
       </c>
@@ -4087,7 +4105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="28">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>30</v>
       </c>
@@ -4177,7 +4195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="28">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>31</v>
       </c>
@@ -4267,7 +4285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="28">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>32</v>
       </c>
@@ -4357,7 +4375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="28">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>33</v>
       </c>
@@ -4447,7 +4465,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="28">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>34</v>
       </c>
@@ -4537,7 +4555,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="37" spans="1:31" ht="28">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>35</v>
       </c>
@@ -4627,7 +4645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="28">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>36</v>
       </c>
@@ -4714,7 +4732,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:31" ht="28">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>37</v>
       </c>
@@ -4804,7 +4822,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:31" ht="28">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>38</v>
       </c>
@@ -4894,7 +4912,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="41" spans="1:31" ht="28">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>39</v>
       </c>
@@ -4981,7 +4999,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:31" ht="28">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>40</v>
       </c>
@@ -5071,7 +5089,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:31" ht="28">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>41</v>
       </c>
@@ -5161,7 +5179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:31" ht="28">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>42</v>
       </c>
@@ -5251,7 +5269,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="28">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>43</v>
       </c>
@@ -5341,7 +5359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:31" ht="28">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>44</v>
       </c>
@@ -5431,7 +5449,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="28">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>45</v>
       </c>
@@ -5521,7 +5539,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="48" spans="1:31" ht="28">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>46</v>
       </c>
@@ -5611,7 +5629,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="49" spans="1:31" ht="28">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>47</v>
       </c>
@@ -5698,7 +5716,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="50" spans="1:31" ht="28">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>48</v>
       </c>
@@ -5788,7 +5806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:31" ht="28">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>49</v>
       </c>
@@ -5825,7 +5843,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:31" ht="28">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>50</v>
       </c>
@@ -5862,7 +5880,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:31" ht="28">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>51</v>
       </c>
@@ -5952,7 +5970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:31" ht="28">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>52</v>
       </c>
@@ -6039,7 +6057,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="55" spans="1:31" ht="28">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>53</v>
       </c>
@@ -6129,7 +6147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:31" ht="28">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>54</v>
       </c>
@@ -6219,7 +6237,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="57" spans="1:31" ht="28">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>55</v>
       </c>
@@ -6309,7 +6327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:31" ht="28">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>56</v>
       </c>
@@ -6399,7 +6417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="28">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>57</v>
       </c>
@@ -6489,7 +6507,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="28">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>58</v>
       </c>
@@ -6579,7 +6597,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:31" ht="28">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>59</v>
       </c>
@@ -6669,7 +6687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:31" ht="28">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>60</v>
       </c>
@@ -6753,7 +6771,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:31" ht="28">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>61</v>
       </c>
@@ -6843,7 +6861,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="64" spans="1:31" ht="28">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>62</v>
       </c>
@@ -6933,7 +6951,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:31" ht="28">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>63</v>
       </c>
@@ -7023,7 +7041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:31" ht="28">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>64</v>
       </c>
@@ -7113,7 +7131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:31" ht="28">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>65</v>
       </c>
@@ -7203,7 +7221,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:31" ht="28">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>66</v>
       </c>
@@ -7293,7 +7311,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:31" ht="28">
+    <row r="69" spans="1:31" ht="31" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>67</v>
       </c>
@@ -7383,7 +7401,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="70" spans="1:31" ht="28">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>68</v>
       </c>
@@ -7473,19 +7491,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:31" ht="18">
-      <c r="A71" s="10" t="s">
+    <row r="71" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="12"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="13"/>
       <c r="K71" s="1">
         <f>SUM(K3:K70)/COUNT(K3:K70)</f>
         <v>7.1639344262295079</v>
@@ -7555,19 +7573,19 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="72" spans="1:31" ht="18">
-      <c r="A72" s="10" t="s">
+    <row r="72" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="12" t="s">
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="13" t="s">
         <v>257</v>
       </c>
       <c r="K72" s="8">
@@ -7641,6 +7659,9 @@
       <c r="AB72" s="8"/>
       <c r="AC72" s="8"/>
       <c r="AD72" s="8"/>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AC73" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7651,10 +7672,5 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>